--- a/Documentation/Hardware/CarteElectronique/PORTS_MP1_PFE.xlsx
+++ b/Documentation/Hardware/CarteElectronique/PORTS_MP1_PFE.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://reseaueseo-my.sharepoint.com/personal/martin_arondel_reseau_eseo_fr/Documents/cours I3/PFE_STM/ScoutBOT - OFFICIAL/Hardware/CarteElectronique/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\I3\PFE\Depot_Git\PFE-ScoutBOT\Documentation\Hardware\CarteElectronique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="14_{7EFB2CDB-802A-452C-9917-F21725BDDFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{289EFBB0-F736-445E-A865-FD4148CC3BD3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DC1D60-CE75-4EF2-A64A-CAD21D0528E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="76">
   <si>
     <t>Liste des ports Arduino STM32MP157C-DK2 - PFE ScoutBOT 2022</t>
   </si>
@@ -263,73 +262,13 @@
   </si>
   <si>
     <t>I2C5_SCL</t>
-  </si>
-  <si>
-    <t>Composants</t>
-  </si>
-  <si>
-    <t>Référence</t>
-  </si>
-  <si>
-    <t>Fournisseur</t>
-  </si>
-  <si>
-    <t>Quantité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prix </t>
-  </si>
-  <si>
-    <t>Caractéristique</t>
-  </si>
-  <si>
-    <t>Lien</t>
-  </si>
-  <si>
-    <t>LED_CMS_JAUNE</t>
-  </si>
-  <si>
-    <t>FARNELL</t>
-  </si>
-  <si>
-    <t>LED, Basse puissance, Jaune, CMS, 1206 (Métrique 3216), 20 mA, 2 V, 590 nm</t>
-  </si>
-  <si>
-    <t>https://fr.farnell.com/kingbright/kpt-3216syck/led-jaune-1206-cms/dp/2099249</t>
-  </si>
-  <si>
-    <t>LED_CMS_ROUGE</t>
-  </si>
-  <si>
-    <t>LED, Basse puissance, Rouge, CMS, 1206 (Métrique 3216), 20 mA, 1.95 V, 630 nm</t>
-  </si>
-  <si>
-    <t>https://fr.farnell.com/kingbright/kpt-3216surck/led-rouge-1206-cms/dp/2099248</t>
-  </si>
-  <si>
-    <t>RESISTANCE_CMS_100_OHM</t>
-  </si>
-  <si>
-    <t>Résistance CMS, Couche épaisse, AEC-Q200 Série WCR, 100 ohms, 200 V, 1206 [3216 Metric], 250 mW</t>
-  </si>
-  <si>
-    <t>https://fr.farnell.com/welwyn/wcr1206-100rfi/resistance-1206-100r/dp/1100164</t>
-  </si>
-  <si>
-    <t>RESISTANCE_CMS_150_OHM</t>
-  </si>
-  <si>
-    <t>Résistance CMS, Couche épaisse, AEC-Q200 Série WCR, 150 ohms, 200 V, 1206 [3216 Metric], 250 mW</t>
-  </si>
-  <si>
-    <t>https://fr.farnell.com/welwyn/wcr1206-150rfi/resistance-1206-150r/dp/1100169</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,21 +289,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial Black"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -399,13 +323,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -705,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,128 +1067,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538E5780-688F-4F3A-923F-2C2BC3D8E577}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="5">
-        <v>2099249</v>
-      </c>
-      <c r="C2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3">
-        <v>2099248</v>
-      </c>
-      <c r="C3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1100164</v>
-      </c>
-      <c r="C4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5">
-        <v>1100169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>